--- a/medicine/Psychotrope/Henri_Cannard/Henri_Cannard.xlsx
+++ b/medicine/Psychotrope/Henri_Cannard/Henri_Cannard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Cannard, né le 2 août 1935 à Jouvençon (Saône-et-Loire) où il est mort le 2 avril 2010[1],[2], est un écrivain et journaliste français spécialisé dans l'écriture de livre sur le monde viticole en Bourgogne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Cannard, né le 2 août 1935 à Jouvençon (Saône-et-Loire) où il est mort le 2 avril 2010 est un écrivain et journaliste français spécialisé dans l'écriture de livre sur le monde viticole en Bourgogne.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Cannard est un Bourguignon d'origine. Œnologue, il était fonctionnaire au Ministère des Finances de Dijon depuis 1977[3]. Membre de la Fédération Internationale des Journalistes et Écrivains des Vins et Spiritueux[4]. Henri Cannard a obtenu le Prix Spécial du Salon européen du livre de Dijon en 2008[5]. 
-Son centre d'éditions se trouve à Jouvençon (Saône-et-Loire). Il était auteur-éditeur-diffuseur[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Cannard est un Bourguignon d'origine. Œnologue, il était fonctionnaire au Ministère des Finances de Dijon depuis 1977. Membre de la Fédération Internationale des Journalistes et Écrivains des Vins et Spiritueux. Henri Cannard a obtenu le Prix Spécial du Salon européen du livre de Dijon en 2008. 
+Son centre d'éditions se trouve à Jouvençon (Saône-et-Loire). Il était auteur-éditeur-diffuseur.
 </t>
         </is>
       </c>
